--- a/lab4/graphs.xlsx
+++ b/lab4/graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" baseline="0"/>
-              <a:t> a function of iterations</a:t>
+              <a:t> a function of iterations (1 thread)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1600"/>
           </a:p>
@@ -386,8 +386,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
-              <a:t>Avg cost/op as a function of threads</a:t>
+              <a:t>Avg cost/op as a function of threads (10,000</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> iterations)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1147,7 +1152,7 @@
   <dimension ref="B2:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
